--- a/Children.xlsx
+++ b/Children.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0A062-6A5A-470A-8AAE-E3CF42F3DCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1AC697-72DA-4422-88D4-DA7FB06B7A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,62 +372,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1990</v>
       </c>
     </row>
   </sheetData>
